--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/100.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/100.xlsx
@@ -479,13 +479,13 @@
         <v>-15.86408332317395</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.75631355686611</v>
+        <v>-14.89048746132173</v>
       </c>
       <c r="F2" t="n">
-        <v>-5.691532589816106</v>
+        <v>-5.548768700295322</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.017279692910565</v>
+        <v>-7.06318257838403</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-15.57927276208503</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.69443828595844</v>
+        <v>-14.78438623429594</v>
       </c>
       <c r="F3" t="n">
-        <v>-5.771756303495313</v>
+        <v>-5.692833065642705</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.209256325553715</v>
+        <v>-7.274715238494839</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-15.37265777663902</v>
       </c>
       <c r="E4" t="n">
-        <v>-14.98043052065236</v>
+        <v>-15.05272426519343</v>
       </c>
       <c r="F4" t="n">
-        <v>-5.824225125191044</v>
+        <v>-5.757539071526324</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.015979217083966</v>
+        <v>-7.059804274638991</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-15.28399653360452</v>
       </c>
       <c r="E5" t="n">
-        <v>-14.81093354158329</v>
+        <v>-14.83633193225691</v>
       </c>
       <c r="F5" t="n">
-        <v>-5.420510494148675</v>
+        <v>-5.327722032821496</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.966419354474048</v>
+        <v>-7.038986883399668</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-15.29556808977648</v>
       </c>
       <c r="E6" t="n">
-        <v>-14.90661140596881</v>
+        <v>-14.95011378907062</v>
       </c>
       <c r="F6" t="n">
-        <v>-5.365709616177425</v>
+        <v>-5.293679878007167</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.924217447198839</v>
+        <v>-6.936234626077716</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-15.39862160073696</v>
       </c>
       <c r="E7" t="n">
-        <v>-15.25635140120044</v>
+        <v>-15.32995539958185</v>
       </c>
       <c r="F7" t="n">
-        <v>-5.26182310926235</v>
+        <v>-5.198344244102326</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.69083092639292</v>
+        <v>-6.666625453394825</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-15.57309242863523</v>
       </c>
       <c r="E8" t="n">
-        <v>-15.50846281830665</v>
+        <v>-15.56814781413794</v>
       </c>
       <c r="F8" t="n">
-        <v>-5.181819400892154</v>
+        <v>-5.123620663148398</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.736010238850081</v>
+        <v>-6.720502309068227</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-15.78866497399425</v>
       </c>
       <c r="E9" t="n">
-        <v>-15.74230401675119</v>
+        <v>-15.80858428284595</v>
       </c>
       <c r="F9" t="n">
-        <v>-4.92956620258681</v>
+        <v>-4.886322936848948</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.335776580696955</v>
+        <v>-6.335062785694387</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-16.02381304952823</v>
       </c>
       <c r="E10" t="n">
-        <v>-16.09205378999655</v>
+        <v>-16.17695628324739</v>
       </c>
       <c r="F10" t="n">
-        <v>-4.76145770146794</v>
+        <v>-4.696653915446982</v>
       </c>
       <c r="G10" t="n">
-        <v>-6.29011325655997</v>
+        <v>-6.25832493391129</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-16.24221527676866</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.22099645710456</v>
+        <v>-16.29182838859243</v>
       </c>
       <c r="F11" t="n">
-        <v>-4.877845398941717</v>
+        <v>-4.856284878658622</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.897252220762152</v>
+        <v>-5.879813133267867</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-16.42183988262789</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.64678006514418</v>
+        <v>-16.70783887190509</v>
       </c>
       <c r="F12" t="n">
-        <v>-4.538836773782967</v>
+        <v>-4.483703443344767</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.78508862522139</v>
+        <v>-5.712012639581612</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-16.53320603354934</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.00775010914912</v>
+        <v>-17.10367731288486</v>
       </c>
       <c r="F13" t="n">
-        <v>-4.258730903356809</v>
+        <v>-4.187595853443197</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.972342477231099</v>
+        <v>-5.915395325245274</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-16.56893392273329</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.19144476415971</v>
+        <v>-17.27867442467921</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.947570061312007</v>
+        <v>-3.879392860552878</v>
       </c>
       <c r="G14" t="n">
-        <v>-5.758404425741768</v>
+        <v>-5.697506956207476</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-16.52670032780039</v>
       </c>
       <c r="E15" t="n">
-        <v>-17.39297940522768</v>
+        <v>-17.48328425106647</v>
       </c>
       <c r="F15" t="n">
-        <v>-3.809196499957713</v>
+        <v>-3.744558940170231</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.513822079210614</v>
+        <v>-5.491723768172158</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-16.41224510408107</v>
       </c>
       <c r="E16" t="n">
-        <v>-17.82342223681147</v>
+        <v>-17.89723157348129</v>
       </c>
       <c r="F16" t="n">
-        <v>-3.338590476962215</v>
+        <v>-3.287383019038147</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.178318871975443</v>
+        <v>-5.178098866666431</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-16.24983814665324</v>
       </c>
       <c r="E17" t="n">
-        <v>-18.4638430243224</v>
+        <v>-18.58895271004675</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.166864110761827</v>
+        <v>-3.099405594012135</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.135569395931138</v>
+        <v>-5.163803410587573</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-16.05451263546424</v>
       </c>
       <c r="E18" t="n">
-        <v>-18.92860668411193</v>
+        <v>-19.04169430195054</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.789202997313248</v>
+        <v>-2.749274478231154</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.897406315416243</v>
+        <v>-4.972565017981327</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-15.85260188862209</v>
       </c>
       <c r="E19" t="n">
-        <v>-19.35019063525288</v>
+        <v>-19.47092465983134</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.514587481598635</v>
+        <v>-2.490088668188525</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.617349335058755</v>
+        <v>-4.673993368618831</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-15.65287340518158</v>
       </c>
       <c r="E20" t="n">
-        <v>-19.76326771444539</v>
+        <v>-19.87643355639387</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.136765030923448</v>
+        <v>-2.12676212287374</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.588215743138808</v>
+        <v>-4.655982267321116</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-15.47234690048129</v>
       </c>
       <c r="E21" t="n">
-        <v>-20.29856996531077</v>
+        <v>-20.43618573060069</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.930527165249508</v>
+        <v>-1.969609886143626</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.54486980825674</v>
+        <v>-4.603914344188472</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-15.31236627909359</v>
       </c>
       <c r="E22" t="n">
-        <v>-20.64678947940679</v>
+        <v>-20.76259049605654</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.695312155875363</v>
+        <v>-1.700088715584339</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.393985278330011</v>
+        <v>-4.443202910459244</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-15.17574381547093</v>
       </c>
       <c r="E23" t="n">
-        <v>-21.00976401622716</v>
+        <v>-21.13375411937898</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.531271308469766</v>
+        <v>-1.544236954680824</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.292161932312774</v>
+        <v>-4.317051866272237</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-15.06427700405001</v>
       </c>
       <c r="E24" t="n">
-        <v>-21.45462452906148</v>
+        <v>-21.54558450182043</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.38465977054472</v>
+        <v>-1.372271027143958</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.35451143688654</v>
+        <v>-4.362749413457292</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-14.97031571473799</v>
       </c>
       <c r="E25" t="n">
-        <v>-21.9033131342726</v>
+        <v>-22.0201408423644</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.179179700935152</v>
+        <v>-1.201517573310086</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.364357896716506</v>
+        <v>-4.390259855097422</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-14.8956730390286</v>
       </c>
       <c r="E26" t="n">
-        <v>-21.80737126351626</v>
+        <v>-21.90497539660735</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.00658798051932</v>
+        <v>-1.07346470545185</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.454721410637696</v>
+        <v>-4.457307695270294</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-14.82759384476493</v>
       </c>
       <c r="E27" t="n">
-        <v>-22.11853699456793</v>
+        <v>-22.2283049767439</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.8758510478911476</v>
+        <v>-0.9361422805739429</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.468024398322571</v>
+        <v>-4.489252466138716</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-14.7655540712328</v>
       </c>
       <c r="E28" t="n">
-        <v>-22.13746722915662</v>
+        <v>-22.22858365013532</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.6626023463700514</v>
+        <v>-0.7314395630562139</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.423759330149523</v>
+        <v>-4.439379707089317</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-14.69402816640861</v>
       </c>
       <c r="E29" t="n">
-        <v>-22.34764074535843</v>
+        <v>-22.41806200026947</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.7453927886543892</v>
+        <v>-0.8289899170717679</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.191516836950463</v>
+        <v>-4.178047623032112</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-14.61358372464001</v>
       </c>
       <c r="E30" t="n">
-        <v>-22.51626748120519</v>
+        <v>-22.59060483061663</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.5512503259691967</v>
+        <v>-0.6377026343968537</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.411683483188243</v>
+        <v>-4.38471572131034</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-14.52024286489601</v>
       </c>
       <c r="E31" t="n">
-        <v>-22.52112226502404</v>
+        <v>-22.58063125660813</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.7456470170114688</v>
+        <v>-0.8413933274931311</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.179465435023517</v>
+        <v>-4.110334877925339</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-14.40804452014101</v>
       </c>
       <c r="E32" t="n">
-        <v>-22.45073523316107</v>
+        <v>-22.5249552464077</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.6381524230286099</v>
+        <v>-0.7230695833000556</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.164275290688012</v>
+        <v>-4.081142617922991</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-14.28271158843204</v>
       </c>
       <c r="E33" t="n">
-        <v>-22.15780549772299</v>
+        <v>-22.22233061035253</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.6320460534518331</v>
+        <v>-0.7393988662355515</v>
       </c>
       <c r="G33" t="n">
-        <v>-3.991937798629261</v>
+        <v>-3.887352163732216</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-14.14018824046748</v>
       </c>
       <c r="E34" t="n">
-        <v>-21.97224324208923</v>
+        <v>-22.03224113436001</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.7706689541563395</v>
+        <v>-0.8846659272721954</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.576939339738052</v>
+        <v>-3.44563039330645</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-13.98917284405963</v>
       </c>
       <c r="E35" t="n">
-        <v>-21.80396362573002</v>
+        <v>-21.84934827647559</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.7633843339246362</v>
+        <v>-0.8515771287969149</v>
       </c>
       <c r="G35" t="n">
-        <v>-3.468584280546616</v>
+        <v>-3.318335321512586</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-13.82402504259634</v>
       </c>
       <c r="E36" t="n">
-        <v>-21.86763316215785</v>
+        <v>-21.93122447447582</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.9452553893738723</v>
+        <v>-1.055654053435679</v>
       </c>
       <c r="G36" t="n">
-        <v>-3.415611891143592</v>
+        <v>-3.290736877748851</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-13.65372467381012</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.37906003892644</v>
+        <v>-21.45329471919368</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.044912905349067</v>
+        <v>-1.171508849160962</v>
       </c>
       <c r="G37" t="n">
-        <v>-3.327863995896203</v>
+        <v>-3.18313472561492</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-13.47593099061515</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.32851748593627</v>
+        <v>-21.43785523550796</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.297581669238098</v>
+        <v>-1.412546665713603</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.989588721767491</v>
+        <v>-2.848271978279314</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-13.29181189099209</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.70300816936944</v>
+        <v>-20.8557945229674</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.237950452482336</v>
+        <v>-1.361373430837604</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.905375578484881</v>
+        <v>-2.737091073118802</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-13.1027021204899</v>
       </c>
       <c r="E40" t="n">
-        <v>-20.50467093879244</v>
+        <v>-20.63382383319573</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.540188856995019</v>
+        <v>-1.647458556661999</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.767989596517704</v>
+        <v>-2.621070051160043</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-12.9022020849885</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.96030446919579</v>
+        <v>-20.11489486632764</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.365778426024695</v>
+        <v>-1.481951007196328</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.437331395087645</v>
+        <v>-2.307665154963327</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-12.69013664829641</v>
       </c>
       <c r="E42" t="n">
-        <v>-19.464251165458</v>
+        <v>-19.67877589777136</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.438385067005248</v>
+        <v>-1.55826840438887</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.083953978747033</v>
+        <v>-1.933372567246052</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-12.45481696134542</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.10909415061783</v>
+        <v>-19.34991196186146</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.544461848996702</v>
+        <v>-1.689963582362958</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.889073276024936</v>
+        <v>-1.752806876630283</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-12.19852578281258</v>
       </c>
       <c r="E44" t="n">
-        <v>-18.68947558023739</v>
+        <v>-18.93832114075649</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.492711711310407</v>
+        <v>-1.633779115448371</v>
       </c>
       <c r="G44" t="n">
-        <v>-1.918764214727711</v>
+        <v>-1.767566788361499</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-11.91134058414972</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.39299642581393</v>
+        <v>-18.65377605209517</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.548021045995816</v>
+        <v>-1.673419183125318</v>
       </c>
       <c r="G45" t="n">
-        <v>-1.624543781476769</v>
+        <v>-1.468784911703726</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-11.59744330907066</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.8889544848556</v>
+        <v>-18.19682502527897</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.560263119190571</v>
+        <v>-1.671551582502156</v>
       </c>
       <c r="G46" t="n">
-        <v>-1.657559244849046</v>
+        <v>-1.537157672737531</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-11.25460423479911</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.50541189614612</v>
+        <v>-17.84128666790318</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.659451290506542</v>
+        <v>-1.767586344388967</v>
       </c>
       <c r="G47" t="n">
-        <v>-1.72412796234896</v>
+        <v>-1.603325491674358</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-10.88339669328182</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.08201412345755</v>
+        <v>-17.45990990923575</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.756077622224249</v>
+        <v>-1.861562834384806</v>
       </c>
       <c r="G48" t="n">
-        <v>-1.628430541935966</v>
+        <v>-1.519733252263846</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-10.48793885752695</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.82756576106897</v>
+        <v>-17.19330258676914</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.735128227799518</v>
+        <v>-1.833020812295756</v>
       </c>
       <c r="G49" t="n">
-        <v>-1.644466484459447</v>
+        <v>-1.512257960764333</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-10.06649685893765</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.39205302936418</v>
+        <v>-16.81550458112829</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.71756691513356</v>
+        <v>-1.825829083194524</v>
       </c>
       <c r="G50" t="n">
-        <v>-1.830649643965302</v>
+        <v>-1.751437954707546</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-9.631035175033785</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.22307917402987</v>
+        <v>-16.68534455131041</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.578968459463388</v>
+        <v>-1.667249256459271</v>
       </c>
       <c r="G51" t="n">
-        <v>-1.711352987405711</v>
+        <v>-1.594975067945667</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-9.180145519965819</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.81714982287679</v>
+        <v>-16.28548734668604</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.592980353143966</v>
+        <v>-1.676963713103831</v>
       </c>
       <c r="G52" t="n">
-        <v>-1.616354694974687</v>
+        <v>-1.479692286023813</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-8.729760576864271</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.83011058008098</v>
+        <v>-16.27227725013163</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.655896982514295</v>
+        <v>-1.705442178103611</v>
       </c>
       <c r="G53" t="n">
-        <v>-1.770866867996667</v>
+        <v>-1.625502026822684</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-8.284676241037673</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.4945340377428</v>
+        <v>-15.9237937296648</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.579227576827334</v>
+        <v>-1.637817435120443</v>
       </c>
       <c r="G54" t="n">
-        <v>-1.621121476669929</v>
+        <v>-1.477482454919967</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-7.855081996768828</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.13168172609411</v>
+        <v>-15.5456192704952</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.514330899675905</v>
+        <v>-1.536473211776163</v>
       </c>
       <c r="G55" t="n">
-        <v>-1.972191281769357</v>
+        <v>-1.822059658900133</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-7.448954619074258</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.06511789760106</v>
+        <v>-15.50660988470408</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.643239343735852</v>
+        <v>-1.674142756141621</v>
       </c>
       <c r="G56" t="n">
-        <v>-1.843688625279365</v>
+        <v>-1.694055681110566</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-7.070382126669363</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.97360057805928</v>
+        <v>-15.41038934055633</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.692852985421305</v>
+        <v>-1.707686232255525</v>
       </c>
       <c r="G57" t="n">
-        <v>-1.82285656701944</v>
+        <v>-1.635690717133335</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-6.726276957317311</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.58350183114127</v>
+        <v>-14.98890316955273</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.588819808300221</v>
+        <v>-1.617029377922321</v>
       </c>
       <c r="G58" t="n">
-        <v>-2.134281415435055</v>
+        <v>-1.965214668970269</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-6.411631661111578</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.61133494723462</v>
+        <v>-15.03482072204679</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.649668387765845</v>
+        <v>-1.695331711902831</v>
       </c>
       <c r="G59" t="n">
-        <v>-2.275211927380746</v>
+        <v>-2.046807304572213</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-6.131796486120884</v>
       </c>
       <c r="E60" t="n">
-        <v>-14.47962510223993</v>
+        <v>-14.88544689524194</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.623673538254458</v>
+        <v>-1.651091088764117</v>
       </c>
       <c r="G60" t="n">
-        <v>-2.135924121742339</v>
+        <v>-1.921550948641852</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-5.877913777871512</v>
       </c>
       <c r="E61" t="n">
-        <v>-14.46395583523147</v>
+        <v>-14.87034964203691</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.682199839458297</v>
+        <v>-1.703408351246974</v>
       </c>
       <c r="G61" t="n">
-        <v>-2.416616672992526</v>
+        <v>-2.177285119836439</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-5.650890788138796</v>
       </c>
       <c r="E62" t="n">
-        <v>-14.22884349500153</v>
+        <v>-14.63642044146876</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.63283064811619</v>
+        <v>-1.648964370777009</v>
       </c>
       <c r="G62" t="n">
-        <v>-2.686152510572415</v>
+        <v>-2.440127907015521</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-5.446047063912833</v>
       </c>
       <c r="E63" t="n">
-        <v>-14.29867806908854</v>
+        <v>-14.68858125573187</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.738086076954002</v>
+        <v>-1.73896120918318</v>
       </c>
       <c r="G63" t="n">
-        <v>-2.82474607723572</v>
+        <v>-2.592743145373138</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-5.259431295525725</v>
       </c>
       <c r="E64" t="n">
-        <v>-14.39138341729898</v>
+        <v>-14.77366953124366</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.760076829841385</v>
+        <v>-1.791850485469465</v>
       </c>
       <c r="G64" t="n">
-        <v>-3.054250726589308</v>
+        <v>-2.802325091744048</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-5.089533694159</v>
       </c>
       <c r="E65" t="n">
-        <v>-14.41719737355629</v>
+        <v>-14.79929770524003</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.030492688657318</v>
+        <v>-2.05581285522107</v>
       </c>
       <c r="G65" t="n">
-        <v>-3.110826314053248</v>
+        <v>-2.845641692584914</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-4.930602522834334</v>
       </c>
       <c r="E66" t="n">
-        <v>-14.44516738184191</v>
+        <v>-14.85962804997776</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.934140141324158</v>
+        <v>-1.930605389359379</v>
       </c>
       <c r="G66" t="n">
-        <v>-3.517137007741948</v>
+        <v>-3.266066949098398</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-4.784780246787543</v>
       </c>
       <c r="E67" t="n">
-        <v>-14.60503301738317</v>
+        <v>-15.02615251287175</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.160183373815971</v>
+        <v>-2.167120874560123</v>
       </c>
       <c r="G67" t="n">
-        <v>-3.635010963303268</v>
+        <v>-3.386184958811632</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-4.647702303470166</v>
       </c>
       <c r="E68" t="n">
-        <v>-14.71704505371105</v>
+        <v>-15.10965675015866</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.238906162387035</v>
+        <v>-2.23867637906429</v>
       </c>
       <c r="G68" t="n">
-        <v>-3.545498136576922</v>
+        <v>-3.303956752316989</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-4.523171904698937</v>
       </c>
       <c r="E69" t="n">
-        <v>-14.90423534863149</v>
+        <v>-15.30982246930389</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.247183251012722</v>
+        <v>-2.236373656829973</v>
       </c>
       <c r="G69" t="n">
-        <v>-3.696387555510518</v>
+        <v>-3.435793711490218</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-4.411988795323246</v>
       </c>
       <c r="E70" t="n">
-        <v>-14.92028595817557</v>
+        <v>-15.3441188524753</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.345119836570762</v>
+        <v>-2.341223298097831</v>
       </c>
       <c r="G70" t="n">
-        <v>-3.578381596763792</v>
+        <v>-3.311652049125513</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-4.315927891227125</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.08120761920008</v>
+        <v>-15.5114695575298</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.405616407541968</v>
+        <v>-2.39187340923907</v>
       </c>
       <c r="G71" t="n">
-        <v>-3.762281590062798</v>
+        <v>-3.498382777400463</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-4.23870304538316</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.40163312925769</v>
+        <v>-15.82078235497891</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.542933943413008</v>
+        <v>-2.537790708189014</v>
       </c>
       <c r="G72" t="n">
-        <v>-3.854292699298137</v>
+        <v>-3.599736778758476</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-4.179695626235074</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.39070130990326</v>
+        <v>-15.77912801647279</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.618659770774654</v>
+        <v>-2.616577053849348</v>
       </c>
       <c r="G73" t="n">
-        <v>-3.670866939665222</v>
+        <v>-3.429423335542627</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-4.140928523992004</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.77229807387971</v>
+        <v>-16.17586114570921</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.814557386925069</v>
+        <v>-2.801650408796414</v>
       </c>
       <c r="G74" t="n">
-        <v>-3.613000654388417</v>
+        <v>-3.352709928793865</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-4.117213097338163</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.84264599368775</v>
+        <v>-16.24218052385891</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.02042857708399</v>
+        <v>-3.00990743430639</v>
       </c>
       <c r="G75" t="n">
-        <v>-3.519229502680988</v>
+        <v>-3.316589946061097</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-4.107067036117297</v>
       </c>
       <c r="E76" t="n">
-        <v>-16.24584727900909</v>
+        <v>-16.61194100221055</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.060542878427027</v>
+        <v>-3.02225217664535</v>
       </c>
       <c r="G76" t="n">
-        <v>-3.520378419294713</v>
+        <v>-3.295254320093881</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-4.103734042364698</v>
       </c>
       <c r="E77" t="n">
-        <v>-16.64969391323687</v>
+        <v>-17.01996773730954</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.138219419528572</v>
+        <v>-3.116218888627455</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.331535640053256</v>
+        <v>-3.092824990769267</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-4.100976693126837</v>
       </c>
       <c r="E78" t="n">
-        <v>-17.23051281803323</v>
+        <v>-17.60193555871962</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.369444999299315</v>
+        <v>-3.38201952496102</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.198935995808789</v>
+        <v>-2.979688482861988</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-4.094375138115337</v>
       </c>
       <c r="E79" t="n">
-        <v>-17.74809730801292</v>
+        <v>-18.10917491016892</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.342873246977632</v>
+        <v>-3.364839554830681</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.062268697851048</v>
+        <v>-2.836826813203866</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-4.078267185759247</v>
       </c>
       <c r="E80" t="n">
-        <v>-18.31730482150035</v>
+        <v>-18.65642100481018</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.452504336961333</v>
+        <v>-3.46261969216898</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.83506188172491</v>
+        <v>-2.618874887076798</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-4.052022506883959</v>
       </c>
       <c r="E81" t="n">
-        <v>-18.96555779801207</v>
+        <v>-19.33123595562985</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.607104512106917</v>
+        <v>-3.611856626781559</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.55451600068073</v>
+        <v>-2.361077554984373</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-4.01541440743391</v>
       </c>
       <c r="E82" t="n">
-        <v>-19.8114097650639</v>
+        <v>-20.18070089875632</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.626621427519642</v>
+        <v>-3.625311173679309</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.459840382702922</v>
+        <v>-2.280462720755812</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-3.974555927128955</v>
       </c>
       <c r="E83" t="n">
-        <v>-20.46705003095153</v>
+        <v>-20.82467110525262</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.583695947228128</v>
+        <v>-3.616036727652771</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.197178488777916</v>
+        <v>-2.021413802905457</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-3.934776787644515</v>
       </c>
       <c r="E84" t="n">
-        <v>-21.46405053430089</v>
+        <v>-21.8279344263985</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.501971308440778</v>
+        <v>-3.566525755111523</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.042426754419457</v>
+        <v>-1.857803188104148</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-3.903886637625071</v>
       </c>
       <c r="E85" t="n">
-        <v>-22.252583784845</v>
+        <v>-22.59008659588874</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.432654969081658</v>
+        <v>-3.452308776686656</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.610155434267438</v>
+        <v>-1.462355867673732</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-3.893942059110047</v>
       </c>
       <c r="E86" t="n">
-        <v>-23.71928095591262</v>
+        <v>-24.04037137090413</v>
       </c>
       <c r="F86" t="n">
-        <v>-3.376177161755057</v>
+        <v>-3.424084540043956</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.360864974123445</v>
+        <v>-1.222510968796619</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.912160035955663</v>
       </c>
       <c r="E87" t="n">
-        <v>-24.77748204722203</v>
+        <v>-25.06770327285583</v>
       </c>
       <c r="F87" t="n">
-        <v>-3.214023471000088</v>
+        <v>-3.258053866843524</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.198647726279207</v>
+        <v>-1.046335606347339</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-3.972911736460148</v>
       </c>
       <c r="E88" t="n">
-        <v>-26.21907416802803</v>
+        <v>-26.49349412346797</v>
       </c>
       <c r="F88" t="n">
-        <v>-3.105467962527109</v>
+        <v>-3.166155204766124</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.9973770915820526</v>
+        <v>-0.84301158876608</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-4.084661577062244</v>
       </c>
       <c r="E89" t="n">
-        <v>-27.61444072890736</v>
+        <v>-27.85973687044109</v>
       </c>
       <c r="F89" t="n">
-        <v>-3.105570631671314</v>
+        <v>-3.207296197551214</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.7858346534575097</v>
+        <v>-0.6771080297441882</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-4.259388784724687</v>
       </c>
       <c r="E90" t="n">
-        <v>-29.32413131927439</v>
+        <v>-29.57976282132477</v>
       </c>
       <c r="F90" t="n">
-        <v>-3.126485803047976</v>
+        <v>-3.241245461235071</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.929811016681288</v>
+        <v>-0.8521784766415456</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-4.507664975989838</v>
       </c>
       <c r="E91" t="n">
-        <v>-30.87261913072206</v>
+        <v>-31.12189003483859</v>
       </c>
       <c r="F91" t="n">
-        <v>-3.180323546666444</v>
+        <v>-3.352489923484854</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.8235924534906939</v>
+        <v>-0.724712289607339</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-4.835370869454862</v>
       </c>
       <c r="E92" t="n">
-        <v>-32.61615631562874</v>
+        <v>-32.86419030100793</v>
       </c>
       <c r="F92" t="n">
-        <v>-3.004764199082395</v>
+        <v>-3.15746255055675</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.213568975237032</v>
+        <v>-1.100549803494559</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-5.255146432633473</v>
       </c>
       <c r="E93" t="n">
-        <v>-34.63922735715814</v>
+        <v>-34.91616270663111</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.9733474409556</v>
+        <v>-3.175087420311978</v>
       </c>
       <c r="G93" t="n">
-        <v>-1.139700970484814</v>
+        <v>-1.02620756507625</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-5.762179812827513</v>
       </c>
       <c r="E94" t="n">
-        <v>-36.74525506720536</v>
+        <v>-37.01310908642303</v>
       </c>
       <c r="F94" t="n">
-        <v>-3.131917489677119</v>
+        <v>-3.334498378214607</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.21157426043533</v>
+        <v>-1.069426385779778</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-6.361400099800688</v>
       </c>
       <c r="E95" t="n">
-        <v>-38.87089013929234</v>
+        <v>-39.18655131215814</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.152778881978245</v>
+        <v>-3.362214158143148</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.628978110705061</v>
+        <v>-1.467347543684853</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-7.050165331926839</v>
       </c>
       <c r="E96" t="n">
-        <v>-40.81413592120219</v>
+        <v>-41.11273690460589</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.202368078629363</v>
+        <v>-3.463338376178416</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.996479867884191</v>
+        <v>-1.78971887847549</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-7.810044774631977</v>
       </c>
       <c r="E97" t="n">
-        <v>-42.97989507264595</v>
+        <v>-43.30400200487433</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.106010642289337</v>
+        <v>-3.364272430034119</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.285395728684529</v>
+        <v>-2.036266605767144</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-8.652158002366411</v>
       </c>
       <c r="E98" t="n">
-        <v>-45.22499058302256</v>
+        <v>-45.51891278685461</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.12071188593815</v>
+        <v>-3.438854229788906</v>
       </c>
       <c r="G98" t="n">
-        <v>-2.663032397098774</v>
+        <v>-2.387678641347257</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-9.526487371346278</v>
       </c>
       <c r="E99" t="n">
-        <v>-47.36152936267447</v>
+        <v>-47.62937604838184</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.895548674682382</v>
+        <v>-3.251140811133707</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.049816397361016</v>
+        <v>-2.730114460319714</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-10.48065510111784</v>
       </c>
       <c r="E100" t="n">
-        <v>-49.85041886722495</v>
+        <v>-50.13176165638844</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.926036521504463</v>
+        <v>-3.287133679687935</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.780874483177675</v>
+        <v>-3.374774016784252</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-11.40622244389958</v>
       </c>
       <c r="E101" t="n">
-        <v>-52.07725760370879</v>
+        <v>-52.34288834705373</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.86938759893752</v>
+        <v>-3.292829372687891</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.139150684398937</v>
+        <v>-3.778322421593146</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-12.45044455182749</v>
       </c>
       <c r="E102" t="n">
-        <v>-54.3146150384668</v>
+        <v>-54.57472609305898</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.801009948896847</v>
+        <v>-3.252143057541424</v>
       </c>
       <c r="G102" t="n">
-        <v>-4.781668855855766</v>
+        <v>-4.419725899484319</v>
       </c>
     </row>
   </sheetData>
